--- a/0_Resources/Problems/6_Advanced _Data_Analytics/2_Data_Tables_Problem.xlsx
+++ b/0_Resources/Problems/6_Advanced _Data_Analytics/2_Data_Tables_Problem.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Desktop\Projects\Excel_For_Data_Analytics\0_Resources\Problems\6_Advanced _Data_Analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Desktop\Projects\Excel_For_Data_Analytics_1\Excel_Project_Data_Analytics\0_Resources\Problems\6_Advanced _Data_Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3B5E99-5457-475D-BED3-C7A72FB9F7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956494C2-604E-4080-9BC1-D8912E0BB743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{7520FE27-1537-4B08-B66C-E274CF35CCEC}"/>
   </bookViews>
@@ -631,6 +631,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,11 +645,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1002,10 +1002,10 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="47"/>
       <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
@@ -1123,10 +1123,10 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="47"/>
       <c r="E8" s="39"/>
       <c r="F8" s="26">
         <f>Year1</f>
@@ -1411,7 +1411,7 @@
   <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1428,10 +1428,10 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="47"/>
       <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
@@ -1529,40 +1529,40 @@
       <c r="E7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
+      <c r="F7" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
     </row>
     <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="E8" s="48">
+      <c r="C8" s="47"/>
+      <c r="E8" s="45">
         <f>Total</f>
         <v>37500</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="43">
         <v>20</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="44">
         <v>25</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="43">
         <v>30</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="44">
         <v>35</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="43">
         <v>40</v>
       </c>
-      <c r="K8" s="47">
+      <c r="K8" s="44">
         <v>45</v>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       <c r="C9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="41">
         <v>25</v>
       </c>
       <c r="F9" s="29">
@@ -1604,7 +1604,7 @@
         <f>IF($C$6&gt;=$B10,((($C$4-$C$3)*$C$5)/$C$6),0)</f>
         <v>9375</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="42">
         <v>30</v>
       </c>
       <c r="F10" s="33">
@@ -1634,7 +1634,7 @@
         <f t="shared" ref="C11:C14" si="0">IF($C$6&gt;=$B11,((($C$4-$C$3)*$C$5)/$C$6),0)</f>
         <v>9375</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="41">
         <v>35</v>
       </c>
       <c r="F11" s="33">
@@ -1664,7 +1664,7 @@
         <f t="shared" si="0"/>
         <v>9375</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="42">
         <v>40</v>
       </c>
       <c r="F12" s="33">
@@ -1694,7 +1694,7 @@
         <f t="shared" si="0"/>
         <v>9375</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="41">
         <v>45</v>
       </c>
       <c r="F13" s="33">
@@ -1724,7 +1724,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="42">
         <v>50</v>
       </c>
       <c r="F14" s="33">
@@ -1754,7 +1754,7 @@
         <f>SUM(C10:C14)</f>
         <v>37500</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="41">
         <v>55</v>
       </c>
       <c r="F15" s="33">
@@ -1777,7 +1777,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="45">
+      <c r="E16" s="42">
         <v>60</v>
       </c>
       <c r="F16" s="36">
